--- a/biology/Médecine/Augustin_Lagrange/Augustin_Lagrange.xlsx
+++ b/biology/Médecine/Augustin_Lagrange/Augustin_Lagrange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fort Cardailhac, connu en littérature sous le pseudonyme d'Augustin Lagrange, né le 7 octobre 1809 à Saint-Jean d'Angély[1], où il est mort le 20 août 1863[2], est un médecin et auteur dramatique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fort Cardailhac, connu en littérature sous le pseudonyme d'Augustin Lagrange, né le 7 octobre 1809 à Saint-Jean d'Angély, où il est mort le 20 août 1863, est un médecin et auteur dramatique français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence ses études de médecine à Rochefort en 1829 et devient en 1830 médecin surnuméraire à Metz. Sous-aide à Thionville pendant une épidémie de choléra (1832), il est reçu médecin le 2 février 1836 à Paris et entre à l'hôpital du Gros-Caillou[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence ses études de médecine à Rochefort en 1829 et devient en 1830 médecin surnuméraire à Metz. Sous-aide à Thionville pendant une épidémie de choléra (1832), il est reçu médecin le 2 février 1836 à Paris et entre à l'hôpital du Gros-Caillou.
 Il sert ensuite en Afrique comme aide-major dans les années 1840 puis devient chirurgien-major du 1er dragon à Marseille en 1846. Le 7 septembre 1850, il est fait chevalier de la Légion d'honneur.
-Médecin de 2e classe à l'hôpital de Djidejely puis médecin-major de 1re classe à l'hôpital de Philippeville, il est nommé le 30 décembre 1852, médecin principal d'armée et s'installe à La Rochelle le 4 septembre 1859 comme médecin principal de l'hôpital militaire[4].
-Ses pièces, écrites sous le pseudonyme d'Augustin Lagrange ont été représentées, principalement, au théâtre de l'Ambigu-Comique, au théâtre de la Gaîté et au théâtre du Panthéon[5],[3].
+Médecin de 2e classe à l'hôpital de Djidejely puis médecin-major de 1re classe à l'hôpital de Philippeville, il est nommé le 30 décembre 1852, médecin principal d'armée et s'installe à La Rochelle le 4 septembre 1859 comme médecin principal de l'hôpital militaire.
+Ses pièces, écrites sous le pseudonyme d'Augustin Lagrange ont été représentées, principalement, au théâtre de l'Ambigu-Comique, au théâtre de la Gaîté et au théâtre du Panthéon,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mademoiselle de La Valliere et madame de Montespan, drame historique en trois actes, avec Benjamin Antier, 1831
 Jeanne Vaubernier ou la cour de Louis XV, comédie en trois actes, avec Jean-Baptiste-Pierre Lafitte et Michel-Nicolas Balisson de Rougemont, 1832
